--- a/symfony/public/images/exemple-eu.xlsx
+++ b/symfony/public/images/exemple-eu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="8025"/>
+    <workbookView windowWidth="28800" windowHeight="12150"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -48,6 +48,134 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -59,137 +187,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,61 +204,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,121 +384,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,6 +395,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -410,23 +425,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -458,21 +482,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -486,15 +495,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -503,162 +503,168 @@
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -666,6 +672,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -989,40 +998,40 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="13.8" customWidth="1"/>
-    <col min="2" max="2" width="17.2" customWidth="1"/>
+    <col min="2" max="2" width="17.2" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
     <col min="4" max="4" width="31.1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="6">
         <v>123456789</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
